--- a/input/ahp_template_合规风险C6.xlsx
+++ b/input/ahp_template_合规风险C6.xlsx
@@ -55,16 +55,16 @@
     <t>1/2</t>
   </si>
   <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>填写说明</t>
@@ -122,7 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +133,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -613,160 +606,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1114,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1193,7 +1189,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1239,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1268,7 +1264,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1297,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1314,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1343,7 +1339,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1372,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1389,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1418,7 +1414,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1447,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1463,7 +1459,7 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
